--- a/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
+++ b/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcava\Documents\GitHub\Coding\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC3720-F744-48CB-B756-CC772F8FD6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79868D48-6006-4AA6-B38C-B9DE75A12C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{E5D7BF72-F0C5-4096-89C0-8DC37475FB76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="23">
   <si>
     <t>Brand</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t>Battery #</t>
-  </si>
-  <si>
     <t>Cutoff</t>
   </si>
   <si>
@@ -75,6 +72,39 @@
   </si>
   <si>
     <t>AAA</t>
+  </si>
+  <si>
+    <t>Batt #</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>KILISTEELS</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Plug Loc</t>
+  </si>
+  <si>
+    <t>USB Type</t>
+  </si>
+  <si>
+    <t>USB C</t>
+  </si>
+  <si>
+    <t>MICRO</t>
+  </si>
+  <si>
+    <t>SIDE</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>0.35 A</t>
   </si>
 </sst>
 </file>
@@ -83,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###&quot; V&quot;"/>
-    <numFmt numFmtId="166" formatCode="0&quot; mAh&quot;"/>
+    <numFmt numFmtId="165" formatCode="0&quot; mAh&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +128,29 @@
       <color theme="1"/>
       <name val="Fira Code"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Fira Code"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -143,20 +189,50 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -168,12 +244,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0&quot; mAh&quot;"/>
+      <numFmt numFmtId="165" formatCode="0&quot; mAh&quot;"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="dotted">
           <color indexed="64"/>
@@ -206,12 +282,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,###&quot; V&quot;"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="dotted">
@@ -245,11 +321,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,###&quot; V&quot;"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="dotted">
@@ -283,11 +360,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="dotted">
           <color indexed="64"/>
@@ -320,7 +398,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <scheme val="none"/>
@@ -357,11 +435,31 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dotted">
+          <color indexed="64"/>
+        </left>
+        <right style="dotted">
+          <color indexed="64"/>
+        </right>
+        <top style="dotted">
+          <color indexed="64"/>
+        </top>
+        <bottom style="dotted">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="dotted">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="dotted">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -374,7 +472,99 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dotted">
+          <color indexed="64"/>
+        </left>
+        <right style="dotted">
+          <color indexed="64"/>
+        </right>
+        <top style="dotted">
+          <color indexed="64"/>
+        </top>
+        <bottom style="dotted">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="dotted">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="dotted">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="dotted">
+          <color indexed="64"/>
+        </left>
+        <right style="dotted">
+          <color indexed="64"/>
+        </right>
+        <top style="dotted">
+          <color indexed="64"/>
+        </top>
+        <bottom style="dotted">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="dotted">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="dotted">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color theme="1"/>
         <name val="Fira Code"/>
         <scheme val="none"/>
@@ -394,16 +584,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E29" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
-    <sortCondition ref="A1:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:H33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="A1:H33" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
+    <sortCondition ref="B1:B33"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E621E886-FF19-4F2A-9DC2-BE55D0D49A62}" name="Brand" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{970D62AB-2D93-4B0E-AF18-58B89109CB56}" name="Size" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{BEBCCB39-C2AB-4780-9A7C-EA8AF608ACDD}" name="Battery #" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{91078071-EBF5-4F85-928F-09C02DDAA78B}" name="Cutoff" dataDxfId="1"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E621E886-FF19-4F2A-9DC2-BE55D0D49A62}" name="Brand" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{970D62AB-2D93-4B0E-AF18-58B89109CB56}" name="Size" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2D695DFE-BB2F-4898-8193-3E441333E394}" name="USB Type" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C4ED642C-3E83-407A-B615-71CDCD59B8BB}" name="Plug Loc" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BEBCCB39-C2AB-4780-9A7C-EA8AF608ACDD}" name="Batt #" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{91078071-EBF5-4F85-928F-09C02DDAA78B}" name="Cutoff" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{79F157F3-8A67-43D3-8511-1DE9F1A4BCE2}" name="Current" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{060F2937-C4F6-498D-A578-F2C3BB45B961}" name="Capacity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -707,476 +900,921 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462D2C0A-38B0-4D44-B1EA-05D7D542B68B}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1476</v>
+      </c>
+      <c r="I2" s="17">
+        <f>AVERAGE(H2:H5)</f>
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1486</v>
+      </c>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1382</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="F5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1160</v>
+      </c>
+      <c r="I6" s="17">
+        <f>AVERAGE(H6:H9)</f>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1080</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1216</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1136</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1821</v>
+      </c>
+      <c r="I10" s="17">
+        <f>AVERAGE(H10:H13)</f>
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1693</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1853</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1741</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1816</v>
+      </c>
+      <c r="I14" s="17">
+        <f>AVERAGE(H14:H17)</f>
+        <v>1761.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1737</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1771</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1722</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="8">
+        <v>377</v>
+      </c>
+      <c r="I18" s="17">
+        <f>AVERAGE(H18:H21)</f>
+        <v>377.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="8">
+        <v>384</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
         <v>3</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="8">
+        <v>372</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="8">
+        <v>378</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="6">
         <v>2</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="6">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="6">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6">
         <v>3</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="6">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6">
         <v>4</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="18"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
+++ b/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcava\Documents\GitHub\Coding\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD05DC-5000-4F1B-93EE-9CD038EAEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B334ACF2-4853-4543-9253-FC7582AAD36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{E5D7BF72-F0C5-4096-89C0-8DC37475FB76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="29">
   <si>
     <t>Brand</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>2-Way</t>
+  </si>
+  <si>
+    <t>DURACELL</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
     <numFmt numFmtId="164" formatCode="#,###&quot; V&quot;"/>
     <numFmt numFmtId="165" formatCode="0&quot; mAh&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,14 +163,8 @@
       <color theme="1"/>
       <name val="Fira Code"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Fira Code"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,20 +177,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEDDF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -248,11 +236,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -280,36 +318,28 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -319,7 +349,7 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -333,6 +363,13 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0&quot; mAh&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dotted">
           <color indexed="64"/>
@@ -364,8 +401,18 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="dotted">
+          <color indexed="64"/>
+        </left>
         <right style="dotted">
           <color indexed="64"/>
         </right>
@@ -393,8 +440,15 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="0&quot; mAh&quot;"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="164" formatCode="#,###&quot; V&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dotted">
           <color indexed="64"/>
         </left>
@@ -407,12 +461,44 @@
         <bottom style="dotted">
           <color indexed="64"/>
         </bottom>
-        <vertical style="dotted">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="dotted">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Fira Code"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color indexed="64"/>
+        </left>
+        <right style="dotted">
+          <color indexed="64"/>
+        </right>
+        <top style="dotted">
+          <color indexed="64"/>
+        </top>
+        <bottom style="dotted">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -432,7 +518,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="dotted">
           <color indexed="64"/>
@@ -446,12 +537,6 @@
         <bottom style="dotted">
           <color indexed="64"/>
         </bottom>
-        <vertical style="dotted">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="dotted">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -470,9 +555,13 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,###&quot; V&quot;"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dotted">
           <color indexed="64"/>
         </left>
@@ -485,12 +574,6 @@
         <bottom style="dotted">
           <color indexed="64"/>
         </bottom>
-        <vertical style="dotted">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="dotted">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -509,8 +592,13 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dotted">
           <color indexed="64"/>
         </left>
@@ -523,12 +611,6 @@
         <bottom style="dotted">
           <color indexed="64"/>
         </bottom>
-        <vertical style="dotted">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="dotted">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -547,11 +629,14 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dotted">
-          <color indexed="64"/>
-        </left>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="dotted">
           <color indexed="64"/>
         </right>
@@ -561,8 +646,6 @@
         <bottom style="dotted">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -581,7 +664,13 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="dotted">
           <color indexed="64"/>
         </left>
@@ -594,12 +683,6 @@
         <bottom style="dotted">
           <color indexed="64"/>
         </bottom>
-        <vertical style="dotted">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="dotted">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -618,39 +701,12 @@
         <name val="Fira Code"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dotted">
-          <color indexed="64"/>
-        </left>
-        <right style="dotted">
-          <color indexed="64"/>
-        </right>
-        <top style="dotted">
-          <color indexed="64"/>
-        </top>
-        <bottom style="dotted">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Fira Code"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -689,23 +745,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:I33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I33" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
-    <sortCondition ref="B1:B33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:I41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I41" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I41">
+    <sortCondition ref="B1:B41"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E621E886-FF19-4F2A-9DC2-BE55D0D49A62}" name="Brand" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{970D62AB-2D93-4B0E-AF18-58B89109CB56}" name="Size" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C4ED642C-3E83-407A-B615-71CDCD59B8BB}" name="Plug Loc" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{2D695DFE-BB2F-4898-8193-3E441333E394}" name="USB Type" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{33A69671-8C41-4604-BF72-F92BF6B6F42C}" name="Splitter Incl." dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{E621E886-FF19-4F2A-9DC2-BE55D0D49A62}" name="Brand" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{970D62AB-2D93-4B0E-AF18-58B89109CB56}" name="Size" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{C4ED642C-3E83-407A-B615-71CDCD59B8BB}" name="Plug Loc" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2D695DFE-BB2F-4898-8193-3E441333E394}" name="USB Type" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{33A69671-8C41-4604-BF72-F92BF6B6F42C}" name="Splitter Incl." dataDxfId="4">
       <calculatedColumnFormula>"1:4"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BEBCCB39-C2AB-4780-9A7C-EA8AF608ACDD}" name="Batt #" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{91078071-EBF5-4F85-928F-09C02DDAA78B}" name="Cutoff" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{79F157F3-8A67-43D3-8511-1DE9F1A4BCE2}" name="Current" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{060F2937-C4F6-498D-A578-F2C3BB45B961}" name="Capacity" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BEBCCB39-C2AB-4780-9A7C-EA8AF608ACDD}" name="Batt #" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{91078071-EBF5-4F85-928F-09C02DDAA78B}" name="Cutoff" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{79F157F3-8A67-43D3-8511-1DE9F1A4BCE2}" name="Current" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{060F2937-C4F6-498D-A578-F2C3BB45B961}" name="Capacity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462D2C0A-38B0-4D44-B1EA-05D7D542B68B}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1020,11 +1076,11 @@
     <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="19" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1044,7 +1100,7 @@
       <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -1063,8 +1119,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1076,7 +1132,7 @@
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="13">
@@ -1091,14 +1147,14 @@
       <c r="I2" s="15">
         <v>1476</v>
       </c>
-      <c r="J2" s="22">
-        <f>AVERAGE(I2:I5)</f>
+      <c r="J2" s="20">
+        <f>IFERROR(AVERAGE(I2:I5),"")</f>
         <v>1461</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1110,7 +1166,7 @@
       <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="13">
@@ -1125,11 +1181,11 @@
       <c r="I3" s="15">
         <v>1486</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1141,7 +1197,7 @@
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="13">
@@ -1156,11 +1212,11 @@
       <c r="I4" s="15">
         <v>1382</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1172,7 +1228,7 @@
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="13">
@@ -1187,11 +1243,11 @@
       <c r="I5" s="15">
         <v>1500</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -1203,7 +1259,7 @@
       <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="13">
@@ -1218,14 +1274,14 @@
       <c r="I6" s="15">
         <v>1160</v>
       </c>
-      <c r="J6" s="22">
-        <f>AVERAGE(I6:I9)</f>
+      <c r="J6" s="20">
+        <f>IFERROR(AVERAGE(I6:I9),"")</f>
         <v>1148</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1237,7 +1293,7 @@
       <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="13">
@@ -1252,11 +1308,11 @@
       <c r="I7" s="15">
         <v>1080</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1268,7 +1324,7 @@
       <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="13">
@@ -1283,11 +1339,11 @@
       <c r="I8" s="15">
         <v>1216</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="21"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1299,7 +1355,7 @@
       <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="13">
@@ -1314,24 +1370,24 @@
       <c r="I9" s="15">
         <v>1136</v>
       </c>
-      <c r="J9" s="23"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>4</v>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>25</v>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -1342,30 +1398,28 @@
       <c r="H10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="15">
-        <v>1821</v>
-      </c>
-      <c r="J10" s="22">
-        <f>AVERAGE(I10:I13)</f>
-        <v>1777</v>
+      <c r="I10" s="15"/>
+      <c r="J10" s="20" t="str">
+        <f>IFERROR(AVERAGE(I10:I13),"")</f>
+        <v/>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>4</v>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>25</v>
+      <c r="C11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="F11" s="13">
         <v>2</v>
@@ -1376,27 +1430,25 @@
       <c r="H11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="15">
-        <v>1693</v>
-      </c>
-      <c r="J11" s="23"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>4</v>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>25</v>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="13">
         <v>3</v>
@@ -1407,27 +1459,25 @@
       <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="15">
-        <v>1853</v>
-      </c>
-      <c r="J12" s="23"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>4</v>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>25</v>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="13">
         <v>4</v>
@@ -1438,27 +1488,25 @@
       <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="15">
-        <v>1741</v>
-      </c>
-      <c r="J13" s="23"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>6</v>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>24</v>
+      <c r="E14" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
@@ -1470,29 +1518,29 @@
         <v>21</v>
       </c>
       <c r="I14" s="15">
-        <v>1816</v>
-      </c>
-      <c r="J14" s="22">
-        <f>AVERAGE(I14:I17)</f>
-        <v>1761.5</v>
+        <v>1821</v>
+      </c>
+      <c r="J14" s="20">
+        <f>IFERROR(AVERAGE(I14:I17),"")</f>
+        <v>1777</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>6</v>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>24</v>
+      <c r="E15" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="13">
         <v>2</v>
@@ -1504,26 +1552,26 @@
         <v>21</v>
       </c>
       <c r="I15" s="15">
-        <v>1737</v>
-      </c>
-      <c r="J15" s="23"/>
+        <v>1693</v>
+      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>6</v>
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>24</v>
+      <c r="E16" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="13">
         <v>3</v>
@@ -1535,26 +1583,26 @@
         <v>21</v>
       </c>
       <c r="I16" s="15">
-        <v>1771</v>
-      </c>
-      <c r="J16" s="23"/>
+        <v>1853</v>
+      </c>
+      <c r="J16" s="21"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>6</v>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>24</v>
+      <c r="E17" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="13">
         <v>4</v>
@@ -1566,521 +1614,767 @@
         <v>21</v>
       </c>
       <c r="I17" s="15">
+        <v>1741</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1816</v>
+      </c>
+      <c r="J18" s="20">
+        <f>IFERROR(AVERAGE(I18:I21),"")</f>
+        <v>1761.5</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1737</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1771</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="13">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="15">
         <v>1722</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="G22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="15">
         <v>377</v>
       </c>
-      <c r="J18" s="25">
-        <f>AVERAGE(I18:I21)</f>
+      <c r="J22" s="20">
+        <f>IFERROR(AVERAGE(I22:I25),"")</f>
         <v>377.75</v>
       </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F23" s="13">
         <v>2</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="G23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="15">
         <v>384</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="J23" s="21"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F24" s="13">
         <v>3</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="20">
+      <c r="G24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="15">
         <v>372</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F25" s="13">
         <v>4</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="G25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="15">
         <v>378</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="20" t="str">
+        <f>IFERROR(AVERAGE(I26:I29),"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="13">
+        <v>4</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F30" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="G30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="15">
         <v>347</v>
       </c>
-      <c r="J22" s="25">
-        <f>AVERAGE(I22:I25)</f>
+      <c r="J30" s="20">
+        <f>IFERROR(AVERAGE(I30:I33),"")</f>
         <v>445.25</v>
       </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F31" s="13">
         <v>2</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="G31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="15">
         <v>485</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="J31" s="21"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F32" s="13">
         <v>3</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="20">
+      <c r="G32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="15">
         <v>485</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="J32" s="21"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F33" s="13">
         <v>4</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="20">
+      <c r="G33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="15">
         <v>464</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="J33" s="22"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C34" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F34" s="13">
         <v>1</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="G34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="15">
         <v>596</v>
       </c>
-      <c r="J26" s="25">
-        <f>AVERAGE(I26:I29)</f>
+      <c r="J34" s="20">
+        <f>IFERROR(AVERAGE(I34:I37),"")</f>
         <v>577.5</v>
       </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F35" s="13">
         <v>2</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="20">
+      <c r="G35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="15">
         <v>593</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="J35" s="21"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F36" s="13">
         <v>3</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="20">
+      <c r="G36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="15">
         <v>547</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="J36" s="21"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F37" s="13">
         <v>4</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="G37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="15">
         <v>574</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="J37" s="22"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F38" s="13">
         <v>1</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="G38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="15">
         <v>635</v>
       </c>
-      <c r="J30" s="25">
-        <f>AVERAGE(I30:I33)</f>
+      <c r="J38" s="20">
+        <f>IFERROR(AVERAGE(I38:I41),"")</f>
         <v>639.5</v>
       </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F39" s="13">
         <v>2</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="20">
+      <c r="G39" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="15">
         <v>635</v>
       </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="J39" s="21"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F40" s="13">
         <v>3</v>
       </c>
-      <c r="G32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="G40" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="15">
         <v>636</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="J40" s="21"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F41" s="13">
         <v>4</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="G41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="15">
         <v>652</v>
       </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="1"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="J26:J29"/>
     <mergeCell ref="J30:J33"/>
     <mergeCell ref="J2:J5"/>
@@ -2089,12 +2383,14 @@
     <mergeCell ref="J14:J17"/>
     <mergeCell ref="J18:J21"/>
     <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="J38:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E33" calculatedColumn="1"/>
-    <ignoredError sqref="J2:J22 J26:J33" formulaRange="1"/>
+    <ignoredError sqref="E2:E41" calculatedColumn="1"/>
+    <ignoredError sqref="J2:J41" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
+++ b/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcava\Documents\GitHub\Coding\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B334ACF2-4853-4543-9253-FC7582AAD36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95236929-8BD8-415D-8339-B044187236FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{E5D7BF72-F0C5-4096-89C0-8DC37475FB76}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="38625" windowHeight="15435" xr2:uid="{E5D7BF72-F0C5-4096-89C0-8DC37475FB76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="30">
   <si>
     <t>Brand</t>
   </si>
@@ -119,10 +119,13 @@
     <t>2-Way</t>
   </si>
   <si>
-    <t>DURACELL</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>DURACELL PROCELL</t>
+  </si>
+  <si>
+    <t>ENERGIZER MAX</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="#,###&quot; V&quot;"/>
     <numFmt numFmtId="165" formatCode="0&quot; mAh&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +165,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Fira Sans Extra Condensed"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -290,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -318,28 +327,24 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,10 +750,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:I41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I41" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I41">
-    <sortCondition ref="B1:B41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I45" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
+    <sortCondition ref="B1:B45"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{E621E886-FF19-4F2A-9DC2-BE55D0D49A62}" name="Brand" dataDxfId="8"/>
@@ -1064,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462D2C0A-38B0-4D44-B1EA-05D7D542B68B}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1081,7 @@
     <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
@@ -1100,7 +1105,7 @@
       <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -1119,7 +1124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1137,7 @@
       <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="13">
@@ -1147,13 +1152,13 @@
       <c r="I2" s="15">
         <v>1476</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="18">
         <f>IFERROR(AVERAGE(I2:I5),"")</f>
         <v>1461</v>
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1171,7 @@
       <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="13">
@@ -1181,10 +1186,10 @@
       <c r="I3" s="15">
         <v>1486</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1202,7 @@
       <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="13">
@@ -1212,10 +1217,10 @@
       <c r="I4" s="15">
         <v>1382</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1233,7 @@
       <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="13">
@@ -1243,10 +1248,10 @@
       <c r="I5" s="15">
         <v>1500</v>
       </c>
-      <c r="J5" s="22"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1259,7 +1264,7 @@
       <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="13">
@@ -1274,13 +1279,13 @@
       <c r="I6" s="15">
         <v>1160</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <f>IFERROR(AVERAGE(I6:I9),"")</f>
         <v>1148</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
@@ -1293,7 +1298,7 @@
       <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="13">
@@ -1308,10 +1313,10 @@
       <c r="I7" s="15">
         <v>1080</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1329,7 @@
       <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="13">
@@ -1339,10 +1344,10 @@
       <c r="I8" s="15">
         <v>1216</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +1360,7 @@
       <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="13">
@@ -1370,24 +1375,24 @@
       <c r="I9" s="15">
         <v>1136</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
@@ -1398,28 +1403,30 @@
       <c r="H10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="20" t="str">
+      <c r="I10" s="15">
+        <v>1631</v>
+      </c>
+      <c r="J10" s="18">
         <f>IFERROR(AVERAGE(I10:I13),"")</f>
-        <v/>
+        <v>1685.25</v>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="13">
         <v>2</v>
@@ -1430,25 +1437,27 @@
       <c r="H11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="15">
+        <v>1692</v>
+      </c>
+      <c r="J11" s="19"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>27</v>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="13">
         <v>3</v>
@@ -1459,25 +1468,27 @@
       <c r="H12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="21"/>
+      <c r="I12" s="15">
+        <v>1702</v>
+      </c>
+      <c r="J12" s="19"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="13">
         <v>4</v>
@@ -1488,11 +1499,13 @@
       <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="22"/>
+      <c r="I13" s="15">
+        <v>1716</v>
+      </c>
+      <c r="J13" s="20"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1518,7 @@
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="13">
@@ -1520,13 +1533,13 @@
       <c r="I14" s="15">
         <v>1821</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <f>IFERROR(AVERAGE(I14:I17),"")</f>
         <v>1777</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1552,7 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="13">
@@ -1554,10 +1567,10 @@
       <c r="I15" s="15">
         <v>1693</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1583,7 @@
       <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="13">
@@ -1585,10 +1598,10 @@
       <c r="I16" s="15">
         <v>1853</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1614,7 @@
       <c r="D17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="13">
@@ -1616,10 +1629,10 @@
       <c r="I17" s="15">
         <v>1741</v>
       </c>
-      <c r="J17" s="22"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1645,7 @@
       <c r="D18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="13">
@@ -1647,13 +1660,13 @@
       <c r="I18" s="15">
         <v>1816</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <f>IFERROR(AVERAGE(I18:I21),"")</f>
         <v>1761.5</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1679,7 @@
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="13">
@@ -1681,10 +1694,10 @@
       <c r="I19" s="15">
         <v>1737</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
@@ -1697,7 +1710,7 @@
       <c r="D20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="13">
@@ -1712,10 +1725,10 @@
       <c r="I20" s="15">
         <v>1771</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1741,7 @@
       <c r="D21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="13">
@@ -1743,10 +1756,10 @@
       <c r="I21" s="15">
         <v>1722</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1772,7 @@
       <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="13">
@@ -1774,13 +1787,13 @@
       <c r="I22" s="15">
         <v>377</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="18">
         <f>IFERROR(AVERAGE(I22:I25),"")</f>
         <v>377.75</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>8</v>
       </c>
@@ -1793,7 +1806,7 @@
       <c r="D23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="13">
@@ -1808,10 +1821,10 @@
       <c r="I23" s="15">
         <v>384</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
@@ -1824,7 +1837,7 @@
       <c r="D24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="13">
@@ -1839,10 +1852,10 @@
       <c r="I24" s="15">
         <v>372</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1868,7 @@
       <c r="D25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="13">
@@ -1870,24 +1883,24 @@
       <c r="I25" s="15">
         <v>378</v>
       </c>
-      <c r="J25" s="22"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>27</v>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F26" s="13">
         <v>1</v>
@@ -1898,28 +1911,30 @@
       <c r="H26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="20" t="str">
+      <c r="I26" s="15">
+        <v>502</v>
+      </c>
+      <c r="J26" s="18">
         <f>IFERROR(AVERAGE(I26:I29),"")</f>
-        <v/>
+        <v>485.25</v>
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>27</v>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F27" s="13">
         <v>2</v>
@@ -1930,25 +1945,27 @@
       <c r="H27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="21"/>
+      <c r="I27" s="15">
+        <v>475</v>
+      </c>
+      <c r="J27" s="19"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>27</v>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F28" s="13">
         <v>3</v>
@@ -1959,25 +1976,27 @@
       <c r="H28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="15">
+        <v>468</v>
+      </c>
+      <c r="J28" s="19"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>27</v>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F29" s="13">
         <v>4</v>
@@ -1988,25 +2007,27 @@
       <c r="H29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="22"/>
+      <c r="I29" s="15">
+        <v>496</v>
+      </c>
+      <c r="J29" s="20"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>14</v>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>24</v>
+      <c r="C30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
@@ -2018,29 +2039,29 @@
         <v>21</v>
       </c>
       <c r="I30" s="15">
-        <v>347</v>
-      </c>
-      <c r="J30" s="20">
+        <v>605</v>
+      </c>
+      <c r="J30" s="18">
         <f>IFERROR(AVERAGE(I30:I33),"")</f>
-        <v>445.25</v>
+        <v>599.25</v>
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>14</v>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>24</v>
+      <c r="C31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F31" s="13">
         <v>2</v>
@@ -2052,26 +2073,26 @@
         <v>21</v>
       </c>
       <c r="I31" s="15">
-        <v>485</v>
-      </c>
-      <c r="J31" s="21"/>
+        <v>596</v>
+      </c>
+      <c r="J31" s="19"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>14</v>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>24</v>
+      <c r="C32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F32" s="13">
         <v>3</v>
@@ -2083,26 +2104,26 @@
         <v>21</v>
       </c>
       <c r="I32" s="15">
-        <v>485</v>
-      </c>
-      <c r="J32" s="21"/>
+        <v>620</v>
+      </c>
+      <c r="J32" s="19"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>14</v>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>24</v>
+      <c r="C33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="F33" s="13">
         <v>4</v>
@@ -2114,26 +2135,26 @@
         <v>21</v>
       </c>
       <c r="I33" s="15">
-        <v>464</v>
-      </c>
-      <c r="J33" s="22"/>
+        <v>576</v>
+      </c>
+      <c r="J33" s="20"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
@@ -2145,29 +2166,29 @@
         <v>21</v>
       </c>
       <c r="I34" s="15">
-        <v>596</v>
-      </c>
-      <c r="J34" s="20">
+        <v>347</v>
+      </c>
+      <c r="J34" s="18">
         <f>IFERROR(AVERAGE(I34:I37),"")</f>
-        <v>577.5</v>
+        <v>445.25</v>
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F35" s="13">
         <v>2</v>
@@ -2179,26 +2200,26 @@
         <v>21</v>
       </c>
       <c r="I35" s="15">
-        <v>593</v>
-      </c>
-      <c r="J35" s="21"/>
+        <v>485</v>
+      </c>
+      <c r="J35" s="19"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F36" s="13">
         <v>3</v>
@@ -2210,26 +2231,26 @@
         <v>21</v>
       </c>
       <c r="I36" s="15">
-        <v>547</v>
-      </c>
-      <c r="J36" s="21"/>
+        <v>485</v>
+      </c>
+      <c r="J36" s="19"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="F37" s="13">
         <v>4</v>
@@ -2241,16 +2262,16 @@
         <v>21</v>
       </c>
       <c r="I37" s="15">
-        <v>574</v>
-      </c>
-      <c r="J37" s="22"/>
+        <v>464</v>
+      </c>
+      <c r="J37" s="20"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -2259,8 +2280,8 @@
       <c r="D38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>24</v>
+      <c r="E38" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
@@ -2272,19 +2293,19 @@
         <v>21</v>
       </c>
       <c r="I38" s="15">
-        <v>635</v>
-      </c>
-      <c r="J38" s="20">
+        <v>596</v>
+      </c>
+      <c r="J38" s="18">
         <f>IFERROR(AVERAGE(I38:I41),"")</f>
-        <v>639.5</v>
+        <v>577.5</v>
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -2293,8 +2314,8 @@
       <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>24</v>
+      <c r="E39" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F39" s="13">
         <v>2</v>
@@ -2306,16 +2327,16 @@
         <v>21</v>
       </c>
       <c r="I39" s="15">
-        <v>635</v>
-      </c>
-      <c r="J39" s="21"/>
+        <v>593</v>
+      </c>
+      <c r="J39" s="19"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2324,8 +2345,8 @@
       <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>24</v>
+      <c r="E40" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F40" s="13">
         <v>3</v>
@@ -2337,16 +2358,16 @@
         <v>21</v>
       </c>
       <c r="I40" s="15">
-        <v>636</v>
-      </c>
-      <c r="J40" s="21"/>
+        <v>547</v>
+      </c>
+      <c r="J40" s="19"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -2355,8 +2376,8 @@
       <c r="D41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>24</v>
+      <c r="E41" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F41" s="13">
         <v>4</v>
@@ -2368,29 +2389,157 @@
         <v>21</v>
       </c>
       <c r="I41" s="15">
+        <v>574</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="15">
+        <v>635</v>
+      </c>
+      <c r="J42" s="18">
+        <f>IFERROR(AVERAGE(I42:I45),"")</f>
+        <v>639.5</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="13">
+        <v>2</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="15">
+        <v>635</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="13">
+        <v>3</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="15">
+        <v>636</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="13">
+        <v>4</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="15">
         <v>652</v>
       </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="1"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="J42:J45"/>
     <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J34:J37"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="J14:J17"/>
     <mergeCell ref="J18:J21"/>
     <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="J30:J33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E2:E41" calculatedColumn="1"/>
-    <ignoredError sqref="J2:J41" formulaRange="1"/>
+    <ignoredError sqref="E34:E45 E2:E29 E30:E33" calculatedColumn="1"/>
+    <ignoredError sqref="J34:J45 J2:J30" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
+++ b/hardware/battery-capacity-tests_lithium-ion_AA-AAA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcava\Documents\GitHub\Coding\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95236929-8BD8-415D-8339-B044187236FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3F4E54-D770-46B6-A196-D3E31FCCCB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="38625" windowHeight="15435" xr2:uid="{E5D7BF72-F0C5-4096-89C0-8DC37475FB76}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15435" xr2:uid="{E5D7BF72-F0C5-4096-89C0-8DC37475FB76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="31">
   <si>
     <t>Brand</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>ENERGIZER MAX</t>
+  </si>
+  <si>
+    <t>LANKOO</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -338,6 +341,13 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,8 +760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:I45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I45" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}" name="Table1" displayName="Table1" ref="A1:I53" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I53" xr:uid="{90FDC6D0-C24B-4FCF-97E3-42B850F8B680}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I45">
     <sortCondition ref="B1:B45"/>
   </sortState>
@@ -1069,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462D2C0A-38B0-4D44-B1EA-05D7D542B68B}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1162,7 @@
       <c r="I2" s="15">
         <v>1476</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="21">
         <f>IFERROR(AVERAGE(I2:I5),"")</f>
         <v>1461</v>
       </c>
@@ -1186,7 +1196,7 @@
       <c r="I3" s="15">
         <v>1486</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1217,7 +1227,7 @@
       <c r="I4" s="15">
         <v>1382</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1248,7 +1258,7 @@
       <c r="I5" s="15">
         <v>1500</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1279,7 +1289,7 @@
       <c r="I6" s="15">
         <v>1160</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="21">
         <f>IFERROR(AVERAGE(I6:I9),"")</f>
         <v>1148</v>
       </c>
@@ -1313,7 +1323,7 @@
       <c r="I7" s="15">
         <v>1080</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1344,7 +1354,7 @@
       <c r="I8" s="15">
         <v>1216</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1375,7 +1385,7 @@
       <c r="I9" s="15">
         <v>1136</v>
       </c>
-      <c r="J9" s="20"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,7 +1416,7 @@
       <c r="I10" s="15">
         <v>1631</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="21">
         <f>IFERROR(AVERAGE(I10:I13),"")</f>
         <v>1685.25</v>
       </c>
@@ -1440,7 +1450,7 @@
       <c r="I11" s="15">
         <v>1692</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1471,7 +1481,7 @@
       <c r="I12" s="15">
         <v>1702</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1512,7 @@
       <c r="I13" s="15">
         <v>1716</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1533,7 +1543,7 @@
       <c r="I14" s="15">
         <v>1821</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="21">
         <f>IFERROR(AVERAGE(I14:I17),"")</f>
         <v>1777</v>
       </c>
@@ -1567,7 +1577,7 @@
       <c r="I15" s="15">
         <v>1693</v>
       </c>
-      <c r="J15" s="19"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1598,7 +1608,7 @@
       <c r="I16" s="15">
         <v>1853</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1639,7 @@
       <c r="I17" s="15">
         <v>1741</v>
       </c>
-      <c r="J17" s="20"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1660,7 +1670,7 @@
       <c r="I18" s="15">
         <v>1816</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="21">
         <f>IFERROR(AVERAGE(I18:I21),"")</f>
         <v>1761.5</v>
       </c>
@@ -1694,7 +1704,7 @@
       <c r="I19" s="15">
         <v>1737</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,7 +1735,7 @@
       <c r="I20" s="15">
         <v>1771</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1756,7 +1766,7 @@
       <c r="I21" s="15">
         <v>1722</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1787,7 +1797,7 @@
       <c r="I22" s="15">
         <v>377</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="21">
         <f>IFERROR(AVERAGE(I22:I25),"")</f>
         <v>377.75</v>
       </c>
@@ -1821,7 +1831,7 @@
       <c r="I23" s="15">
         <v>384</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1852,7 +1862,7 @@
       <c r="I24" s="15">
         <v>372</v>
       </c>
-      <c r="J24" s="19"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1883,7 +1893,7 @@
       <c r="I25" s="15">
         <v>378</v>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="23"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1914,7 +1924,7 @@
       <c r="I26" s="15">
         <v>502</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="21">
         <f>IFERROR(AVERAGE(I26:I29),"")</f>
         <v>485.25</v>
       </c>
@@ -1948,7 +1958,7 @@
       <c r="I27" s="15">
         <v>475</v>
       </c>
-      <c r="J27" s="19"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1979,7 +1989,7 @@
       <c r="I28" s="15">
         <v>468</v>
       </c>
-      <c r="J28" s="19"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2010,7 +2020,7 @@
       <c r="I29" s="15">
         <v>496</v>
       </c>
-      <c r="J29" s="20"/>
+      <c r="J29" s="23"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2051,7 @@
       <c r="I30" s="15">
         <v>605</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="21">
         <f>IFERROR(AVERAGE(I30:I33),"")</f>
         <v>599.25</v>
       </c>
@@ -2075,7 +2085,7 @@
       <c r="I31" s="15">
         <v>596</v>
       </c>
-      <c r="J31" s="19"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2106,7 +2116,7 @@
       <c r="I32" s="15">
         <v>620</v>
       </c>
-      <c r="J32" s="19"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2137,7 +2147,7 @@
       <c r="I33" s="15">
         <v>576</v>
       </c>
-      <c r="J33" s="20"/>
+      <c r="J33" s="23"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2168,7 +2178,7 @@
       <c r="I34" s="15">
         <v>347</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="21">
         <f>IFERROR(AVERAGE(I34:I37),"")</f>
         <v>445.25</v>
       </c>
@@ -2202,7 +2212,7 @@
       <c r="I35" s="15">
         <v>485</v>
       </c>
-      <c r="J35" s="19"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2233,7 +2243,7 @@
       <c r="I36" s="15">
         <v>485</v>
       </c>
-      <c r="J36" s="19"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2264,7 +2274,7 @@
       <c r="I37" s="15">
         <v>464</v>
       </c>
-      <c r="J37" s="20"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2295,7 +2305,7 @@
       <c r="I38" s="15">
         <v>596</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="21">
         <f>IFERROR(AVERAGE(I38:I41),"")</f>
         <v>577.5</v>
       </c>
@@ -2329,7 +2339,7 @@
       <c r="I39" s="15">
         <v>593</v>
       </c>
-      <c r="J39" s="19"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2360,7 +2370,7 @@
       <c r="I40" s="15">
         <v>547</v>
       </c>
-      <c r="J40" s="19"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2391,7 +2401,7 @@
       <c r="I41" s="15">
         <v>574</v>
       </c>
-      <c r="J41" s="20"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2422,7 +2432,7 @@
       <c r="I42" s="15">
         <v>635</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="21">
         <f>IFERROR(AVERAGE(I42:I45),"")</f>
         <v>639.5</v>
       </c>
@@ -2456,7 +2466,7 @@
       <c r="I43" s="15">
         <v>635</v>
       </c>
-      <c r="J43" s="19"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2487,7 +2497,7 @@
       <c r="I44" s="15">
         <v>636</v>
       </c>
-      <c r="J44" s="19"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2518,27 +2528,275 @@
       <c r="I45" s="15">
         <v>652</v>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="1"/>
     </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="20">
+        <v>1542</v>
+      </c>
+      <c r="J46" s="21">
+        <f>IFERROR(AVERAGE(I46:I49),"")</f>
+        <v>1510.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="13">
+        <v>2</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="20">
+        <v>1465</v>
+      </c>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="13">
+        <v>3</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="20">
+        <v>1474</v>
+      </c>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="13">
+        <v>4</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="20">
+        <v>1561</v>
+      </c>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="18">
+        <v>379</v>
+      </c>
+      <c r="J50" s="21">
+        <f>IFERROR(AVERAGE(I50:I53),"")</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="13">
+        <v>2</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="18">
+        <v>334</v>
+      </c>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="13">
+        <v>3</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="18">
+        <v>403</v>
+      </c>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="13">
+        <v>4</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="20">
+        <v>348</v>
+      </c>
+      <c r="J53" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J34:J37"/>
+  <mergeCells count="13">
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J30:J33"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="J14:J17"/>
     <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J34:J37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E34:E45 E2:E29 E30:E33" calculatedColumn="1"/>
+    <ignoredError sqref="E34:E45 E2:E29 E30:E33 E46:E53" calculatedColumn="1"/>
     <ignoredError sqref="J34:J45 J2:J30" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
